--- a/refs/litreview/preseason_review_dmb.xlsx
+++ b/refs/litreview/preseason_review_dmb.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28028"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielbuonaiuto/Documents/git/decsens/refs/litreview/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859C0F05-BDA3-7F4D-97E9-E3870F33A9EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="1360" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="11160" yWindow="2960" windowWidth="31240" windowHeight="16060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="senswindows" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="98">
   <si>
     <t>year</t>
   </si>
@@ -268,12 +274,57 @@
   </si>
   <si>
     <t>See the meta tab in the other excel for info!</t>
+  </si>
+  <si>
+    <t>1,2,3 month sliding window over 9 month period from mean flowering month</t>
+  </si>
+  <si>
+    <t>parrcorr: 0,1,2 month prior to start of spring</t>
+  </si>
+  <si>
+    <t>aggregated in weeks to study the phenological anomalies from the average</t>
+  </si>
+  <si>
+    <t>Mean T for 30 previous days</t>
+  </si>
+  <si>
+    <t>T during the two preceding months and the month of flowering</t>
+  </si>
+  <si>
+    <t>Jan-March or Feb-April depending on species of interest</t>
+  </si>
+  <si>
+    <t>Nov 1 to certain phenophase</t>
+  </si>
+  <si>
+    <t>25-day moving window from DOY 1-DOY 365</t>
+  </si>
+  <si>
+    <t>soil temperature sensitivity</t>
+  </si>
+  <si>
+    <t>CO2 flux not phenology</t>
+  </si>
+  <si>
+    <t>no sensitivity</t>
+  </si>
+  <si>
+    <t>experiment</t>
+  </si>
+  <si>
+    <t>simulated anealing algorithm to weight temperature-phenology coherance for mean temperature between Jan and month of phenological event</t>
+  </si>
+  <si>
+    <t>moving window regression for monthly mean temperature</t>
+  </si>
+  <si>
+    <t>review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -431,6 +482,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -755,25 +814,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="39.6640625" customWidth="1"/>
     <col min="7" max="7" width="23" customWidth="1"/>
     <col min="8" max="8" width="31.1640625" customWidth="1"/>
     <col min="9" max="9" width="29.83203125" customWidth="1"/>
     <col min="10" max="10" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>81</v>
       </c>
@@ -805,7 +865,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>29</v>
       </c>
@@ -831,7 +891,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>29</v>
       </c>
@@ -854,7 +914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -880,7 +940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -909,7 +969,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -935,7 +995,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -951,8 +1011,14 @@
       <c r="E7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>3</v>
       </c>
@@ -968,8 +1034,14 @@
       <c r="E8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -985,8 +1057,14 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -1002,8 +1080,17 @@
       <c r="E10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" t="s">
+        <v>71</v>
+      </c>
+      <c r="I10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -1019,8 +1106,14 @@
       <c r="E11" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>3</v>
       </c>
@@ -1036,8 +1129,17 @@
       <c r="E12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>3</v>
       </c>
@@ -1053,8 +1155,14 @@
       <c r="E13" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -1070,8 +1178,20 @@
       <c r="E14" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="F14" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>3</v>
       </c>
@@ -1087,8 +1207,14 @@
       <c r="E15" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>3</v>
       </c>
@@ -1104,8 +1230,14 @@
       <c r="E16" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1253,11 @@
       <c r="E17" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>3</v>
       </c>
@@ -1138,8 +1273,14 @@
       <c r="E18" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>3</v>
       </c>
@@ -1155,8 +1296,14 @@
       <c r="E19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="G19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1172,8 +1319,11 @@
       <c r="E20" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -1189,8 +1339,11 @@
       <c r="E21" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1206,8 +1359,11 @@
       <c r="E22" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>82</v>
       </c>
